--- a/myBatis.xlsx
+++ b/myBatis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\洋平\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\洋平\Desktop\知恵袋\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="pom.xml" sheetId="2" r:id="rId1"/>
-    <sheet name="generatorconfig.xml" sheetId="3" r:id="rId2"/>
+    <sheet name="web.xml" sheetId="4" r:id="rId2"/>
+    <sheet name="generatorconfig.xml" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">generatorconfig.xml!$B$8:$E$8</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="155">
   <si>
     <t>&lt;persistence-unit&gt;</t>
     <phoneticPr fontId="1"/>
@@ -229,19 +233,691 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;classPathEntry location=”(ここにJDBCドライバへのパスを入力)” /&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;/context&gt;</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;classPathEntry location=”(ここにJDBCドライバへのフルパスを入力)” /&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;commentGenerator&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;/commentGenerator&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;property name="suppressDate" value="true" /&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムスタンプを含まないコメントを生成する設定です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;jdbcConnection driverClass="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ドライバ名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>" connectionURL="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>jdbc:mysql://(サーバ名)/(データベース名)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>" userId="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザーID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>" password="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パスワード</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
+    <rPh sb="33" eb="34">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;javaModelGenerator targetPackage="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生成するパッケージ名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>" targetProject="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プロジェクト名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
+    <rPh sb="35" eb="37">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;sqlMapGenerator targetPackage="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生成するパッケージ名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>" targetProject="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プロジェクト名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
+    <rPh sb="32" eb="34">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;javaClientGenerator targetPackage="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生成するパッケージ名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>" targetProject="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プロジェクト名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
+    <rPh sb="36" eb="38">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;property&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;table tableName="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テーブル名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"/&gt;</t>
+    </r>
+    <rPh sb="22" eb="23">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンティティクラスファイルの生成に関するもの</t>
+    <rPh sb="14" eb="16">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mapファイルの生成</t>
+    <rPh sb="8" eb="10">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mapファイルの出力先</t>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○生成されるファイル（&lt;table tableName="xxxx"/&gt;で指定したテーブル名）</t>
+    <rPh sb="1" eb="3">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxxx.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxxxExample.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxxxMapper.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxxxMapper.xml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○生成コマンド</t>
+    <rPh sb="1" eb="3">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mvn mybatis-generator:generate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;web-apps&gt;</t>
+  </si>
+  <si>
+    <t>├─&lt;icon&gt;?</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;small-icon&gt;?</t>
+  </si>
+  <si>
+    <t>│      └─&lt;large-icon&gt;?</t>
+  </si>
+  <si>
+    <t>├─&lt;display-name&gt;?</t>
+  </si>
+  <si>
+    <t>├─&lt;description&gt;?</t>
+  </si>
+  <si>
+    <t>├─&lt;distributable&gt;?</t>
+  </si>
+  <si>
+    <t>├─&lt;context-param&gt;*</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;param-name&gt;</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;param-value&gt;</t>
+  </si>
+  <si>
+    <t>│      └─&lt;description&gt;?</t>
+  </si>
+  <si>
+    <t>├─&lt;filter&gt;*［2.3］</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;icon&gt;?</t>
+  </si>
+  <si>
+    <t>│      │      ├─&lt;small-icon&gt;?</t>
+  </si>
+  <si>
+    <t>│      │      └─&lt;large-icon&gt;?</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;filter-name&gt;</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;display-name&gt;?</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;description&gt;?</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;filter-class&gt;</t>
+  </si>
+  <si>
+    <t>│      └─&lt;init-param&gt;*</t>
+  </si>
+  <si>
+    <t>│              ├─&lt;param-name&gt;</t>
+  </si>
+  <si>
+    <t>│              ├─&lt;param-value&gt;</t>
+  </si>
+  <si>
+    <t>│              └─&lt;description&gt;?</t>
+  </si>
+  <si>
+    <t>├─&lt;filter-mapping&gt;*［2.3］</t>
+  </si>
+  <si>
+    <t>│      └─(&lt;url-pattern&gt;|&lt;servlet-name&gt;)</t>
+  </si>
+  <si>
+    <t>├─&lt;listener&gt;*［2.3］</t>
+  </si>
+  <si>
+    <t>│      └─&lt;listener-class&gt;</t>
+  </si>
+  <si>
+    <t>├─&lt;servlet&gt;*</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;servlet-name&gt;</t>
+  </si>
+  <si>
+    <t>│      ├─(&lt;servlet-class&gt;|&lt;jsp-file&gt;)</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;init-param&gt;*</t>
+  </si>
+  <si>
+    <t>│      │      ├─&lt;param-name&gt;</t>
+  </si>
+  <si>
+    <t>│      │      ├─&lt;param-value&gt;</t>
+  </si>
+  <si>
+    <t>│      │      └─&lt;description&gt;?</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;load-on-startup&gt;?</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;run-as&gt;?［2.3］</t>
+  </si>
+  <si>
+    <t>│      └─&lt;security-role-ref&gt;*</t>
+  </si>
+  <si>
+    <t>├─&lt;servlet-mapping&gt;*</t>
+  </si>
+  <si>
+    <t>│      └─&lt;url-pattern&gt;</t>
+  </si>
+  <si>
+    <t>├─&lt;session-config&gt;?</t>
+  </si>
+  <si>
+    <t>│      └─&lt;session-timeout&gt;?</t>
+  </si>
+  <si>
+    <t>├─&lt;mime-mapping&gt;*</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;extension&gt;</t>
+  </si>
+  <si>
+    <t>│      └─&lt;mime-type&gt;</t>
+  </si>
+  <si>
+    <t>├─&lt;welcome-file-list&gt;?</t>
+  </si>
+  <si>
+    <t>│      └─&lt;welcome-file&gt;+</t>
+  </si>
+  <si>
+    <t>├─&lt;error-page&gt;*</t>
+  </si>
+  <si>
+    <t>│      ├─(&lt;error-code&gt;|&lt;exception-type&gt;)</t>
+  </si>
+  <si>
+    <t>│      └─&lt;location&gt;</t>
+  </si>
+  <si>
+    <t>├─&lt;taglib&gt;*</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;taglib-uri&gt;</t>
+  </si>
+  <si>
+    <t>│      └─&lt;taglib-location&gt;</t>
+  </si>
+  <si>
+    <t>├─&lt;resource-env-ref&gt;*［2.3］</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;resource-env-ref-name&gt;</t>
+  </si>
+  <si>
+    <t>│      └─&lt;resource-env-ref-type&gt;</t>
+  </si>
+  <si>
+    <t>├─&lt;resource-ref&gt;*</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;res-ref-name&gt;</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;res-type&gt;</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;res-auth&gt;</t>
+  </si>
+  <si>
+    <t>│      └─&lt;res-sharing-scope&gt;?［2.3］</t>
+  </si>
+  <si>
+    <t>├─&lt;security-constraint&gt;*</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;display-name&gt;?［2.3］</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;web-resource-collection&gt;+</t>
+  </si>
+  <si>
+    <t>│      │      ├─&lt;web-resource-name&gt;</t>
+  </si>
+  <si>
+    <t>│      │      ├─&lt;description&gt;?</t>
+  </si>
+  <si>
+    <t>│      │      ├─&lt;url-pattern&gt;*</t>
+  </si>
+  <si>
+    <t>│      │      └─&lt;http-method&gt;*</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;auth-constraint&gt;?</t>
+  </si>
+  <si>
+    <t>│      │      └─&lt;role-name&gt;*</t>
+  </si>
+  <si>
+    <t>│      └─&lt;user-data-constraint&gt;?</t>
+  </si>
+  <si>
+    <t>│              ├─&lt;description&gt;?</t>
+  </si>
+  <si>
+    <t>│              └─&lt;transport-guarantee&gt;</t>
+  </si>
+  <si>
+    <t>├─&lt;login-config&gt;?</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;auth-method&gt;?</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;realm-name&gt;?</t>
+  </si>
+  <si>
+    <t>│      └─&lt;form-login-config&gt;?</t>
+  </si>
+  <si>
+    <t>│              ├─&lt;form-login-page&gt;</t>
+  </si>
+  <si>
+    <t>│              └─&lt;form-error-page&gt;</t>
+  </si>
+  <si>
+    <t>├─&lt;security-role&gt;*</t>
+  </si>
+  <si>
+    <t>│      └─&lt;role-name&gt;</t>
+  </si>
+  <si>
+    <t>├─&lt;env-entry&gt;*</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;env-entry-name&gt;</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;env-entry-value&gt;?</t>
+  </si>
+  <si>
+    <t>│      └─&lt;env-entry-type&gt;</t>
+  </si>
+  <si>
+    <t>├─&lt;ejb-ref&gt;*</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;ejb-ref-name&gt;</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;ejb-ref-type&gt;</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;home&gt;</t>
+  </si>
+  <si>
+    <t>│      ├─&lt;remote&gt;</t>
+  </si>
+  <si>
+    <t>│      └─&lt;ejb-link&gt;?</t>
+  </si>
+  <si>
+    <t>└─&lt;ejb-local-ref&gt;*［2.3］</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ├─&lt;description&gt;?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ├─&lt;ejb-ref-name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ├─&lt;ejb-ref-type&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ├─&lt;local-home&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ├─&lt;local&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        └─&lt;ejb-link&gt;?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +948,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -295,7 +980,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -303,6 +988,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,10 +1458,580 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:B111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B48" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B54" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B55" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B58" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B59" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B60" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B61" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B62" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B63" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B64" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B69" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B70" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B71" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B72" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B73" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B74" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B75" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B76" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B77" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B78" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B79" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B80" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B81" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B82" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B83" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B84" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B85" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B86" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B87" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B88" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B89" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B90" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B91" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B92" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B93" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B94" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B95" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B96" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B97" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B98" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B99" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B100" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B101" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B102" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B103" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B104" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B105" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B106" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B107" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B108" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B109" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B110" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B111" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -783,7 +2047,7 @@
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -799,30 +2063,179 @@
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
